--- a/hiqu/HR/Performance Evaluation/October 2024/Dev/Arif Khan.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Dev/Arif Khan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E1E94-53D3-410D-B746-988755A69DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7B2ED6-0FAA-4AC0-9262-82A3A343ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>Employee Name</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Internal Meetings</t>
   </si>
   <si>
-    <t>Time Off - Un Planned</t>
-  </si>
-  <si>
     <t>No Work</t>
   </si>
   <si>
@@ -385,16 +382,38 @@
   </si>
   <si>
     <t>Backup Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXELUS 2024.2                  </t>
+  </si>
+  <si>
+    <t>Production Issue</t>
+  </si>
+  <si>
+    <t>Admin &amp; Misc.</t>
+  </si>
+  <si>
+    <t>Development DB</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Production Upgra</t>
+  </si>
+  <si>
+    <t>Session Meetings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -502,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +576,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -753,6 +778,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -764,7 +798,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,9 +911,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,6 +985,48 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3037,18 +3110,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="92"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
@@ -3056,11 +3129,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3068,11 +3141,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3080,11 +3153,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3092,11 +3165,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3104,11 +3177,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3116,12 +3189,12 @@
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="89">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.6082191780821917</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+        <v>1.6383561643835616</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
@@ -3129,11 +3202,11 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3427,12 +3500,12 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="41"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
@@ -3452,13 +3525,13 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
@@ -3549,13 +3622,13 @@
       <c r="F14" s="29"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
@@ -3642,13 +3715,13 @@
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="97"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
@@ -4105,10 +4178,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED0E320-9CAE-499B-97CB-201CC1F9356F}">
-  <dimension ref="B2:Y30"/>
+  <dimension ref="B2:Y35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,102 +4198,102 @@
     <col min="10" max="10" width="10.5703125" style="6" customWidth="1"/>
     <col min="11" max="11" width="2.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="6.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="78" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="78" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="51" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="50" customWidth="1"/>
     <col min="21" max="21" width="2.28515625" style="6" customWidth="1"/>
     <col min="22" max="24" width="9.140625" style="6"/>
     <col min="25" max="25" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="B4" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -4226,39 +4302,39 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="95" t="s">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="92" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="P6" s="89" t="s">
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="P6" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
       <c r="T6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="93" t="s">
+      <c r="V6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="92"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -4273,33 +4349,33 @@
         <v>79</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="74" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="86" t="s">
         <v>96</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -4326,16 +4402,16 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="81"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="67"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="48"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -4343,7 +4419,7 @@
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="27"/>
@@ -4352,17 +4428,17 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="5">
         <v>20</v>
       </c>
       <c r="M9" s="33">
         <v>6</v>
       </c>
-      <c r="N9" s="14">
-        <f>IF(L9=0,0,(M9/L9))</f>
-        <v>0.3</v>
+      <c r="N9" s="82">
+        <f>L9-M9</f>
+        <v>14</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -4370,11 +4446,12 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="63">
-        <v>0</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="67">
+      <c r="R9" s="82">
+        <f>P9-Q9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="85"/>
+      <c r="T9" s="87">
         <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
         <v>6</v>
       </c>
@@ -4394,7 +4471,7 @@
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="27"/>
@@ -4403,25 +4480,28 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="5">
         <v>8</v>
       </c>
       <c r="M10" s="33">
-        <v>10</v>
-      </c>
-      <c r="N10" s="14">
-        <f>IF(L10=0,0,(M10/L10))</f>
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="N10" s="82">
+        <f t="shared" ref="N10:N33" si="0">L10-M10</f>
+        <v>6</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="67">
-        <f>D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
-        <v>10</v>
+      <c r="R10" s="82">
+        <f t="shared" ref="R10:R33" si="1">P10-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="85"/>
+      <c r="T10" s="87">
+        <f t="shared" ref="T10:T33" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <v>2</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -4439,25 +4519,28 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="5">
         <v>46</v>
       </c>
       <c r="M11" s="33">
-        <v>10.5</v>
-      </c>
-      <c r="N11" s="14">
-        <f>IF(L11=0,0,(M11/L11))</f>
-        <v>0.22826086956521738</v>
+        <v>23.5</v>
+      </c>
+      <c r="N11" s="82">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="67">
-        <f>D11+E11+F11+G11+H11+I11+J11+M11+Q11</f>
-        <v>10.5</v>
+      <c r="R11" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="85"/>
+      <c r="T11" s="87">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -4466,7 +4549,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="31" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="27"/>
@@ -4475,24 +4558,27 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="60"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="5">
         <v>4</v>
       </c>
       <c r="M12" s="33">
         <v>2</v>
       </c>
-      <c r="N12" s="14">
-        <f>IF(L12=0,0,(M12/L12))</f>
-        <v>0.5</v>
+      <c r="N12" s="82">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="67">
-        <f>D12+E12+F12+G12+H12+I12+J12+M12+Q12</f>
+      <c r="R12" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="85"/>
+      <c r="T12" s="87">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V12" s="2"/>
@@ -4515,17 +4601,23 @@
       <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="60"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="5"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="67">
-        <f>D13+E13+F13+G13+H13+I13+J13+M13+Q13</f>
+      <c r="R13" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="85"/>
+      <c r="T13" s="87">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="V13" s="2"/>
@@ -4544,24 +4636,27 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="60"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="5">
         <v>46</v>
       </c>
       <c r="M14" s="33">
         <v>13</v>
       </c>
-      <c r="N14" s="14">
-        <f>IF(L14=0,0,(M14/L14))</f>
-        <v>0.28260869565217389</v>
+      <c r="N14" s="82">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="14"/>
+      <c r="R14" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="36">
-        <f t="shared" ref="T14:T16" si="0">D14+E14+F14+G14+H14+I14+J14+M14+Q14</f>
+      <c r="T14" s="87">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="V14" s="2"/>
@@ -4580,22 +4675,25 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="14">
-        <f>IF(L15=0,0,(M15/L15))</f>
+      <c r="M15" s="80"/>
+      <c r="N15" s="82">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2">
         <v>4</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="82">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="36">
-        <f t="shared" si="0"/>
+      <c r="T15" s="87">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V15" s="2"/>
@@ -4614,24 +4712,27 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="60"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="5">
         <v>4</v>
       </c>
       <c r="M16" s="33">
         <v>4</v>
       </c>
-      <c r="N16" s="14">
-        <f>IF(L16=0,0,(M16/L16))</f>
-        <v>1</v>
+      <c r="N16" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="14"/>
+      <c r="R16" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="36">
-        <f t="shared" si="0"/>
+      <c r="T16" s="87">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V16" s="2"/>
@@ -4641,7 +4742,7 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="27"/>
@@ -4650,16 +4751,25 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="60"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="5"/>
       <c r="M17" s="33"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="14"/>
+      <c r="R17" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="36"/>
+      <c r="T17" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4668,7 +4778,7 @@
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -4676,19 +4786,25 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="60"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="5"/>
       <c r="M18" s="33">
         <v>3</v>
       </c>
-      <c r="N18" s="14"/>
+      <c r="N18" s="82">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="67">
-        <f>D18+E18+F18+G18+H18+I18+J18+M18+Q18</f>
+      <c r="T18" s="87">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V18" s="2"/>
@@ -4707,16 +4823,25 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="60"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="5"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="67"/>
+      <c r="R19" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="85"/>
+      <c r="T19" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4728,30 +4853,29 @@
         <v>90</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="27">
-        <f>16+21.5</f>
-        <v>37.5</v>
-      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="28">
-        <v>7.5</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="5">
-        <v>23</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="60"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="5"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="67">
-        <f>D20+E20+F20+G20+H20+I20+J20+M20+Q20</f>
-        <v>68</v>
+      <c r="R20" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="85"/>
+      <c r="T20" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -4769,22 +4893,25 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="60"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="5"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2">
         <v>22</v>
       </c>
-      <c r="R21" s="72">
-        <f t="shared" ref="R21" si="1">IF(P21=0,0,(Q21-P21)/P21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="68"/>
-      <c r="T21" s="67">
-        <f>D21+E21+F21+G21+H21+I21+J21+M21+Q21</f>
+      <c r="R21" s="82">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="S21" s="85"/>
+      <c r="T21" s="87">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="V21" s="2"/>
@@ -4805,17 +4932,23 @@
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="60"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="14"/>
+      <c r="R22" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="36">
-        <f t="shared" ref="T22:T27" si="2">D22+E22+F22+G22+H22+I22+J22+M22+Q22</f>
+      <c r="T22" s="87">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V22" s="2"/>
@@ -4825,7 +4958,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="72" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="27"/>
@@ -4836,19 +4969,25 @@
         <v>63</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="58"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="44"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="74">
+      <c r="Q23" s="73">
         <v>43.5</v>
       </c>
-      <c r="R23" s="14"/>
+      <c r="R23" s="82">
+        <f t="shared" si="1"/>
+        <v>-43.5</v>
+      </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="36">
-        <f>D23+E23+F23+G23+H23+I23+J23+M23+Q23</f>
+      <c r="T23" s="87">
+        <f t="shared" si="2"/>
         <v>106.5</v>
       </c>
       <c r="V23" s="2"/>
@@ -4857,30 +4996,36 @@
       <c r="Y23" s="8"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="27">
+        <v>4</v>
+      </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="28">
-        <v>43</v>
-      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="14"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="14"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S24" s="7"/>
-      <c r="T24" s="36">
+      <c r="T24" s="87">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -4888,30 +5033,34 @@
       <c r="Y24" s="8"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="B25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="27">
-        <v>3</v>
-      </c>
+      <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="60"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="5"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="14"/>
+      <c r="R25" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S25" s="7"/>
-      <c r="T25" s="36">
+      <c r="T25" s="87">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -4919,61 +5068,79 @@
       <c r="Y25" s="8"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="60"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27">
+        <f>21.5+5</f>
+        <v>26.5</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="J26" s="54"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="5"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="2"/>
+      <c r="R26" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="87">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="8"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>2</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="60"/>
+        <v>117</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28">
+        <v>63</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="5"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="36">
+      <c r="Q27" s="2">
+        <v>45</v>
+      </c>
+      <c r="R27" s="82">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="87">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U27" s="2"/>
+        <v>108</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -4981,108 +5148,304 @@
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="60"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="2">
+        <v>14</v>
+      </c>
+      <c r="N28" s="82">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="14"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S28" s="7"/>
-      <c r="T28" s="49"/>
+      <c r="T28" s="87">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29" s="82">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="87">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="32"/>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="5">
+        <v>3</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="87">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="55"/>
+      <c r="T31" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="55"/>
+      <c r="T32" s="87">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16">
-        <f>SUM(D8:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <f>SUM(E8:E28)</f>
-        <v>40.5</v>
-      </c>
-      <c r="F29" s="16">
-        <f>SUM(F8:F28)</f>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16">
+        <f>SUM(D8:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <f>SUM(E8:E33)</f>
+        <v>30.5</v>
+      </c>
+      <c r="F34" s="16">
+        <f>SUM(F8:F33)</f>
         <v>15</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16">
-        <f>SUM(H8:H28)</f>
-        <v>67</v>
-      </c>
-      <c r="I29" s="16">
-        <f>SUM(I8:I28)</f>
-        <v>27</v>
-      </c>
-      <c r="J29" s="16">
-        <f>SUM(J8:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="16">
-        <f>SUM(L8:L28)</f>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16">
+        <f>SUM(H8:H33)</f>
+        <v>130</v>
+      </c>
+      <c r="I34" s="16">
+        <f>SUM(I8:I33)</f>
+        <v>37.5</v>
+      </c>
+      <c r="J34" s="16">
+        <f>SUM(J8:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="70"/>
+      <c r="L34" s="16">
+        <f>SUM(L8:L33)</f>
         <v>128</v>
       </c>
-      <c r="M29" s="50">
-        <f>SUM(M8:M28)</f>
-        <v>48.5</v>
-      </c>
-      <c r="N29" s="17">
-        <f t="shared" ref="N29" si="3">IF(L29=0,0,(M29-L29)/L29)</f>
-        <v>-0.62109375</v>
-      </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16">
-        <f>SUM(P8:P28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="50">
-        <f>SUM(Q8:Q28)</f>
-        <v>69.5</v>
-      </c>
-      <c r="R29" s="17">
-        <f t="shared" ref="R29" si="4">IF(P29=0,0,(Q29-P29)/P29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="50">
-        <f>SUM(T8:T28)</f>
-        <v>318</v>
-      </c>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16">
-        <f>SUM(V8:V28)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="16">
-        <f>SUM(W8:W28)</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="16">
-        <f>SUM(X8:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="16">
-        <f>SUM(Y8:Y28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M34" s="49">
+        <f>SUM(M8:M33)</f>
+        <v>72.5</v>
+      </c>
+      <c r="N34" s="83">
+        <f>L34-M34</f>
+        <v>55.5</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16">
+        <f>SUM(P8:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="49">
+        <f>SUM(Q8:Q33)</f>
+        <v>114.5</v>
+      </c>
+      <c r="R34" s="83">
+        <f>P34-Q34</f>
+        <v>-114.5</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="49">
+        <f>SUM(T8:T33)</f>
+        <v>400</v>
+      </c>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16">
+        <f>SUM(V8:V33)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="16">
+        <f>SUM(W8:W33)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
+        <f>SUM(X8:X33)</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <f>SUM(Y8:Y33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:Y2"/>
@@ -5095,14 +5458,14 @@
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9:V25">
+  <conditionalFormatting sqref="V9:V30">
     <cfRule type="expression" priority="2">
       <formula>V9/$Y9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
+  <conditionalFormatting sqref="V33">
     <cfRule type="expression" priority="9">
-      <formula>V28/$Y28</formula>
+      <formula>V33/$Y33</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,10 +5474,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:Y25"/>
+  <dimension ref="B2:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,7 +5492,7 @@
     <col min="11" max="11" width="2.85546875" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="6"/>
     <col min="13" max="13" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="78" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -5142,88 +5505,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -5232,40 +5595,40 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="95" t="s">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="92" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="P6" s="89" t="s">
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="P6" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="65" t="s">
+      <c r="Q6" s="102"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="93" t="s">
+      <c r="V6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="92"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -5280,21 +5643,21 @@
         <v>79</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="46" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="74" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -5306,8 +5669,8 @@
       <c r="R7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="60"/>
-      <c r="T7" s="66" t="s">
+      <c r="S7" s="59"/>
+      <c r="T7" s="65" t="s">
         <v>96</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -5334,16 +5697,16 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="75"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="67"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="66"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -5360,17 +5723,17 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="5">
         <v>20</v>
       </c>
       <c r="M9" s="33">
         <v>6</v>
       </c>
-      <c r="N9" s="14">
-        <f>IF(L9=0,0,(M9/L9))</f>
-        <v>0.3</v>
+      <c r="N9" s="76">
+        <f>L9-M9</f>
+        <v>14</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -5378,11 +5741,11 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="63">
-        <v>0</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="67">
+      <c r="R9" s="62">
+        <v>0</v>
+      </c>
+      <c r="S9" s="67"/>
+      <c r="T9" s="66">
         <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
         <v>6</v>
       </c>
@@ -5411,23 +5774,23 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="5">
         <v>8</v>
       </c>
       <c r="M10" s="33">
         <v>2</v>
       </c>
-      <c r="N10" s="14">
-        <f>IF(L10=0,0,(M10/L10))</f>
-        <v>0.25</v>
+      <c r="N10" s="76">
+        <f>L10-M10</f>
+        <v>6</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="67">
+      <c r="R10" s="62"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="66">
         <f>D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
         <v>2</v>
       </c>
@@ -5447,23 +5810,23 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="5">
         <v>46</v>
       </c>
       <c r="M11" s="33">
         <v>10.5</v>
       </c>
-      <c r="N11" s="14">
-        <f>IF(L11=0,0,(M11/L11))</f>
-        <v>0.22826086956521738</v>
+      <c r="N11" s="76">
+        <f>L11-M11</f>
+        <v>35.5</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="67">
+      <c r="R11" s="62"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="66">
         <f>D11+E11+F11+G11+H11+I11+J11+M11+Q11</f>
         <v>10.5</v>
       </c>
@@ -5483,23 +5846,23 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="60"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="5">
         <v>4</v>
       </c>
       <c r="M12" s="33">
         <v>2</v>
       </c>
-      <c r="N12" s="14">
-        <f>IF(L12=0,0,(M12/L12))</f>
-        <v>0.5</v>
+      <c r="N12" s="76">
+        <f>L12-M12</f>
+        <v>2</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="67">
+      <c r="R12" s="62"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="66">
         <f>D12+E12+F12+G12+H12+I12+J12+M12+Q12</f>
         <v>2</v>
       </c>
@@ -5521,16 +5884,16 @@
       <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="60"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="5"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="76"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="67">
+      <c r="R13" s="62"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="66">
         <f>D13+E13+F13+G13+H13+I13+J13+M13+Q13</f>
         <v>4</v>
       </c>
@@ -5550,16 +5913,16 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="60"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="5"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="14"/>
+      <c r="N14" s="76"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="67"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="66"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -5578,16 +5941,16 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="5"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="76"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="67">
+      <c r="R15" s="62"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="66">
         <f>D15+E15+F15+G15+H15+I15+J15+M15+Q15</f>
         <v>8</v>
       </c>
@@ -5607,21 +5970,21 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="60"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="76"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2">
         <v>22</v>
       </c>
-      <c r="R16" s="72">
+      <c r="R16" s="71">
         <f t="shared" ref="R16" si="0">IF(P16=0,0,(Q16-P16)/P16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="67">
+      <c r="S16" s="67"/>
+      <c r="T16" s="66">
         <f>D16+E16+F16+G16+H16+I16+J16+M16+Q16</f>
         <v>22</v>
       </c>
@@ -5631,8 +5994,8 @@
       <c r="Y16" s="8"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>92</v>
+      <c r="B17" t="s">
+        <v>114</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="27"/>
@@ -5641,108 +6004,100 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="60"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="76"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="67"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="66"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="8"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31" t="s">
-        <v>93</v>
+      <c r="B18" s="32"/>
+      <c r="C18" t="s">
+        <v>115</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="60"/>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="5"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="76"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2">
-        <v>33.5</v>
-      </c>
-      <c r="R18" s="63"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="67">
-        <f>D18+E18+F18+G18+H18+I18+J18+M18+Q18</f>
-        <v>33.5</v>
-      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="66"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="8"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="31" t="s">
-        <v>90</v>
-      </c>
+      <c r="B19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="31"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27">
-        <v>16</v>
-      </c>
+      <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="60"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="5"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="76"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="67">
-        <f>D19+E19+F19+G19+H19+I19+J19+M19+Q19</f>
-        <v>16</v>
-      </c>
+      <c r="R19" s="62"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="66"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="8"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="27">
-        <v>3</v>
-      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="60"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="5"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="76"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="67">
+      <c r="Q20" s="2">
+        <v>35</v>
+      </c>
+      <c r="R20" s="62"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="66">
         <f>D20+E20+F20+G20+H20+I20+J20+M20+Q20</f>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -5751,29 +6106,29 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="32"/>
-      <c r="C21" s="70" t="s">
-        <v>112</v>
+      <c r="C21" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27">
-        <v>5</v>
-      </c>
+      <c r="E21" s="27">
+        <v>16</v>
+      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="60"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="5"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="76"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="67">
+      <c r="R21" s="62"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="66">
         <f>D21+E21+F21+G21+H21+I21+J21+M21+Q21</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5781,147 +6136,209 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>43</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="60"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27">
+        <v>3</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="76"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="67">
+      <c r="R22" s="62"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="66">
         <f>D22+E22+F22+G22+H22+I22+J22+M22+Q22</f>
-        <v>43</v>
-      </c>
-      <c r="U22" s="2"/>
+        <v>3</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="60"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27">
+        <v>5</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="5"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="76"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="2"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="66">
+        <f>D23+E23+F23+G23+H23+I23+J23+M23+Q23</f>
+        <v>5</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="36"/>
-    </row>
-    <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="66">
+        <f>D24+E24+F24+G24+H24+I24+J24+M24+Q24</f>
+        <v>43</v>
+      </c>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="36"/>
+    </row>
+    <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16">
-        <f t="shared" ref="D24:J24" si="1">SUM(D8:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:J26" si="1">SUM(D8:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G26" s="16">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J24" s="57">
+        <v>6</v>
+      </c>
+      <c r="J26" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="59">
-        <f>SUM(L8:L23)</f>
+      <c r="K26" s="59"/>
+      <c r="L26" s="58">
+        <f>SUM(L8:L25)</f>
         <v>78</v>
       </c>
-      <c r="M24" s="16">
-        <f>SUM(M8:M23)</f>
+      <c r="M26" s="16">
+        <f>SUM(M8:M25)</f>
         <v>20.5</v>
       </c>
-      <c r="N24" s="64">
-        <f>IF(L24=0,0,(L24-M24)/L24)</f>
-        <v>0.73717948717948723</v>
-      </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59">
-        <f>SUM(P8:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="16">
-        <f>SUM(Q8:Q23)</f>
-        <v>55.5</v>
-      </c>
-      <c r="R24" s="64">
-        <f t="shared" ref="R24" si="2">IF(P24=0,0,(Q24-P24)/P24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="60"/>
-      <c r="T24" s="59">
-        <f>SUM(T8:T23)</f>
-        <v>155</v>
-      </c>
-      <c r="U24" s="61"/>
-      <c r="V24" s="16">
-        <f>SUM(V8:V23)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="16">
-        <f>SUM(W8:W23)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="16">
-        <f>SUM(X8:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="16">
-        <f>SUM(Y8:Y23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="N26" s="77">
+        <f>L26-M26</f>
+        <v>57.5</v>
+      </c>
+      <c r="O26" s="59"/>
+      <c r="P26" s="58">
+        <f>SUM(P8:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f>SUM(Q8:Q25)</f>
+        <v>57</v>
+      </c>
+      <c r="R26" s="63">
+        <f t="shared" ref="R26" si="2">IF(P26=0,0,(Q26-P26)/P26)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="59"/>
+      <c r="T26" s="58">
+        <f>SUM(T8:T25)</f>
+        <v>156.5</v>
+      </c>
+      <c r="U26" s="60"/>
+      <c r="V26" s="16">
+        <f>SUM(V8:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <f>SUM(W8:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <f>SUM(X8:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <f>SUM(Y8:Y25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:Y3"/>
@@ -5934,7 +6351,7 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9:V21">
+  <conditionalFormatting sqref="V9:V23">
     <cfRule type="expression" priority="5">
       <formula>V9/$Y9</formula>
     </cfRule>
@@ -5948,7 +6365,7 @@
   <dimension ref="B2:Y25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,88 +6393,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -6066,39 +6483,39 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="95" t="s">
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="92" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="P6" s="89" t="s">
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="P6" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
       <c r="T6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="93" t="s">
+      <c r="V6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="92"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="105"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -6113,14 +6530,14 @@
         <v>79</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="46" t="s">
         <v>10</v>
       </c>
@@ -6166,8 +6583,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="8"/>
@@ -6193,8 +6610,8 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="5"/>
       <c r="M9" s="33"/>
       <c r="N9" s="14">
@@ -6236,8 +6653,8 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="60"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="59"/>
       <c r="L10" s="5">
         <v>46</v>
       </c>
@@ -6272,8 +6689,8 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="5"/>
       <c r="M11" s="33"/>
       <c r="N11" s="14">
@@ -6306,8 +6723,8 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="60"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="59"/>
       <c r="L12" s="5">
         <v>4</v>
       </c>
@@ -6342,8 +6759,8 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="60"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="59"/>
       <c r="L13" s="5">
         <v>8</v>
       </c>
@@ -6366,7 +6783,7 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="27"/>
@@ -6375,8 +6792,8 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="60"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="59"/>
       <c r="L14" s="5"/>
       <c r="M14" s="33"/>
       <c r="N14" s="14"/>
@@ -6393,7 +6810,7 @@
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -6401,8 +6818,8 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="60"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="59"/>
       <c r="L15" s="5">
         <v>8</v>
       </c>
@@ -6431,8 +6848,8 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="60"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="59"/>
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="14"/>
@@ -6463,8 +6880,8 @@
       <c r="I17" s="5">
         <v>23</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="60"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="14"/>
@@ -6494,8 +6911,8 @@
         <v>2</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="60"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="5"/>
       <c r="M18" s="2"/>
       <c r="N18" s="14"/>
@@ -6514,7 +6931,7 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="27"/>
@@ -6525,13 +6942,13 @@
         <v>63</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="58"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="44"/>
       <c r="N19" s="14"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="74">
+      <c r="Q19" s="73">
         <v>10</v>
       </c>
       <c r="R19" s="14"/>
@@ -6558,8 +6975,8 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="60"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="5"/>
       <c r="M20" s="2"/>
       <c r="N20" s="14"/>
@@ -6578,7 +6995,7 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -6587,8 +7004,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="60"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="5"/>
       <c r="M21" s="2"/>
       <c r="N21" s="14"/>
@@ -6607,7 +7024,7 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6617,8 +7034,8 @@
         <v>2</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="60"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="5"/>
       <c r="M22" s="2"/>
       <c r="N22" s="14"/>
@@ -6646,8 +7063,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="60"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="5"/>
       <c r="M23" s="2"/>
       <c r="N23" s="14"/>
@@ -6692,12 +7109,12 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="59">
+      <c r="K24" s="59"/>
+      <c r="L24" s="58">
         <f>SUM(L8:L23)</f>
         <v>66</v>
       </c>
